--- a/biology/Botanique/Chrysanthemum_pacificum/Chrysanthemum_pacificum.xlsx
+++ b/biology/Botanique/Chrysanthemum_pacificum/Chrysanthemum_pacificum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysanthemum pacificum est une espèce de plante à fleurs appartenant au genre Chrysanthemum de la famille des Asteraceae, utilisée comme plante d'ornement. Il donne de très bons résultats en rocaille mais aussi en grosses potées ou jardinières.
 Il est parfois appelé « chrysanthème Ajania ».
@@ -521,7 +533,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ajania pacifica (Nakai) K.Bremer &amp; Humphries
 Dendranthema pacificum (Nakai) Kitam.
